--- a/studyLog_spec.xlsx
+++ b/studyLog_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\git\tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F62C90-BD8B-4958-B186-AEF2157F27AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC56E43-206B-4939-AA82-47F7CF84479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4215" yWindow="-16050" windowWidth="20460" windowHeight="14850" xr2:uid="{EC6F1BAE-A902-4ECD-A4F4-8348000BAF5F}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="9570" windowHeight="7170" xr2:uid="{EC6F1BAE-A902-4ECD-A4F4-8348000BAF5F}"/>
   </bookViews>
   <sheets>
     <sheet name="機能構成図" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>test_master</t>
     <phoneticPr fontId="1"/>
@@ -1146,7 +1146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F3F55E-9293-4D84-AD12-106C0E199BBB}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1287,7 +1289,9 @@
       <c r="E9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
@@ -1365,6 +1369,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1373,7 +1378,7 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
